--- a/Maps.xlsx
+++ b/Maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Desktop\C\PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD41FA-54E9-4A32-8D0C-CE897346D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A9CFE-28C1-4E1A-B147-FF157BB5711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{44B19C4D-1BF1-4B9D-8533-2B1B012C458C}"/>
   </bookViews>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>p</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +391,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1253,9 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
       <c r="T18">
         <v>1</v>
       </c>
